--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/15.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/15.xlsx
@@ -479,13 +479,13 @@
         <v>-18.56653690649619</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.74876034564439</v>
+        <v>-11.76419617069478</v>
       </c>
       <c r="F2" t="n">
-        <v>1.262291664645927</v>
+        <v>2.784703915990359</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.00782765092259</v>
+        <v>-10.79619057548608</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-18.38897980723965</v>
       </c>
       <c r="E3" t="n">
-        <v>-12.33722008147145</v>
+        <v>-12.41408499145522</v>
       </c>
       <c r="F3" t="n">
-        <v>1.372122993185167</v>
+        <v>2.888002185411578</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.79417436084846</v>
+        <v>-10.50183633069556</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-18.16638308079124</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.86431619387934</v>
+        <v>-12.95342240702013</v>
       </c>
       <c r="F4" t="n">
-        <v>1.232349568046899</v>
+        <v>2.751501835983742</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.62231170144512</v>
+        <v>-10.19255686066546</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-17.91755894124224</v>
       </c>
       <c r="E5" t="n">
-        <v>-13.4220875718454</v>
+        <v>-13.53212837723011</v>
       </c>
       <c r="F5" t="n">
-        <v>1.471179356485666</v>
+        <v>2.918402512610066</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.40238719830981</v>
+        <v>-9.918286208434143</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-17.64717610306728</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.16398909697749</v>
+        <v>-14.33809054016676</v>
       </c>
       <c r="F6" t="n">
-        <v>1.453138163169768</v>
+        <v>2.909159346803807</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.00892422100741</v>
+        <v>-9.401375907637114</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-17.3642882663834</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.72846373399851</v>
+        <v>-14.90900659018591</v>
       </c>
       <c r="F7" t="n">
-        <v>1.541327915111635</v>
+        <v>2.953542253437258</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.927699574177344</v>
+        <v>-9.16521694897806</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-17.08163733984945</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.48496317679913</v>
+        <v>-15.7815300207699</v>
       </c>
       <c r="F8" t="n">
-        <v>1.842896018767953</v>
+        <v>3.273858534762929</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.305631896955571</v>
+        <v>-8.549577592451575</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-16.80099919726791</v>
       </c>
       <c r="E9" t="n">
-        <v>-16.33638181520226</v>
+        <v>-16.60809946837944</v>
       </c>
       <c r="F9" t="n">
-        <v>1.926163064841331</v>
+        <v>3.315649165433718</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.69533419998851</v>
+        <v>-7.916486196237068</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-16.52099724699217</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.00521519817467</v>
+        <v>-17.25066969185135</v>
       </c>
       <c r="F10" t="n">
-        <v>2.184238538457435</v>
+        <v>3.601427951862915</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.09511757620958</v>
+        <v>-7.300755193590692</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-16.25136709647893</v>
       </c>
       <c r="E11" t="n">
-        <v>-17.98139039035661</v>
+        <v>-18.21044022857261</v>
       </c>
       <c r="F11" t="n">
-        <v>2.350589338364406</v>
+        <v>3.735519317567873</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.80105136208157</v>
+        <v>-6.992693307724878</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-15.9874252493698</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.88601614750851</v>
+        <v>-19.15533790926566</v>
       </c>
       <c r="F12" t="n">
-        <v>2.602275768193748</v>
+        <v>4.052641077000162</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.271637912070693</v>
+        <v>-6.385210455868788</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-15.7235907161664</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.46453882547871</v>
+        <v>-19.792330811727</v>
       </c>
       <c r="F13" t="n">
-        <v>2.556452708247707</v>
+        <v>4.100427982372462</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.591139287266297</v>
+        <v>-5.66389003080389</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-15.47118834178501</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.42193965538561</v>
+        <v>-20.71995974497182</v>
       </c>
       <c r="F14" t="n">
-        <v>3.016175830232076</v>
+        <v>4.484268117086187</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.786774385276331</v>
+        <v>-4.880917951657304</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-15.22639016412426</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.32220567569122</v>
+        <v>-21.58841146937203</v>
       </c>
       <c r="F15" t="n">
-        <v>3.084648574094303</v>
+        <v>4.553919168204169</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.457437507292711</v>
+        <v>-4.521769900103075</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-14.98639515846636</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.07726496517924</v>
+        <v>-22.39015791079365</v>
       </c>
       <c r="F16" t="n">
-        <v>3.261682693120123</v>
+        <v>4.746690235245745</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.009890226951148</v>
+        <v>-4.121891694408236</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-14.76297284636576</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.96641562037223</v>
+        <v>-23.33936295912164</v>
       </c>
       <c r="F17" t="n">
-        <v>3.580166052047951</v>
+        <v>5.10649290194206</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.010034242282407</v>
+        <v>-4.039606571047987</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-14.55011570017631</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.95652102277776</v>
+        <v>-24.25190955949278</v>
       </c>
       <c r="F18" t="n">
-        <v>3.462675726346302</v>
+        <v>4.924117123356816</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.768572900972453</v>
+        <v>-3.733770376665266</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-14.34170100559937</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.61577084007003</v>
+        <v>-24.96445814165373</v>
       </c>
       <c r="F19" t="n">
-        <v>3.72905171996406</v>
+        <v>5.170802293500619</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.749026092829756</v>
+        <v>-3.681715380566563</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-14.14367896357364</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.05442844678207</v>
+        <v>-25.37864623435457</v>
       </c>
       <c r="F20" t="n">
-        <v>3.992887806830524</v>
+        <v>5.374701817957661</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.448125696618366</v>
+        <v>-3.367225174005462</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-13.94615093825634</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.75027125051697</v>
+        <v>-26.0011066806616</v>
       </c>
       <c r="F21" t="n">
-        <v>3.912082113691391</v>
+        <v>5.329376265519604</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.409267741784123</v>
+        <v>-3.444901806765422</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-13.74231305507533</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.26280872216486</v>
+        <v>-26.49693837388345</v>
       </c>
       <c r="F22" t="n">
-        <v>4.108571394740015</v>
+        <v>5.453648404093268</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.479088992839047</v>
+        <v>-3.385096167384417</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-13.53961010932219</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.69835036080056</v>
+        <v>-26.91903421750069</v>
       </c>
       <c r="F23" t="n">
-        <v>4.087833187038721</v>
+        <v>5.440346624406075</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.524100330008902</v>
+        <v>-3.497244833526643</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-13.33350421259369</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.09224538409673</v>
+        <v>-27.37302291084039</v>
       </c>
       <c r="F24" t="n">
-        <v>4.302049446135044</v>
+        <v>5.647597778390598</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.778732527977632</v>
+        <v>-3.791690724437062</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-13.12453052312098</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.19928805213068</v>
+        <v>-27.4404875473838</v>
       </c>
       <c r="F25" t="n">
-        <v>4.114567669441526</v>
+        <v>5.445295514880248</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.476247963122393</v>
+        <v>-3.515286026842541</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-12.9249559134853</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.58713443151397</v>
+        <v>-27.78210500543296</v>
       </c>
       <c r="F26" t="n">
-        <v>4.300452185188353</v>
+        <v>5.540162341271395</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.52476803745383</v>
+        <v>-3.55873937997423</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-12.73371462449663</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.45537349571484</v>
+        <v>-27.70598635671116</v>
       </c>
       <c r="F27" t="n">
-        <v>4.273063087643462</v>
+        <v>5.583000356169523</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.468143827663365</v>
+        <v>-3.476755379579342</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-12.55291721589647</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.72951322491775</v>
+        <v>-27.99651764907191</v>
       </c>
       <c r="F28" t="n">
-        <v>4.021612319265271</v>
+        <v>5.350585796123201</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.5532176115289</v>
+        <v>-3.634452167307932</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-12.39265720824821</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.71609361450498</v>
+        <v>-28.075176204545</v>
       </c>
       <c r="F29" t="n">
-        <v>4.151487963455194</v>
+        <v>5.444588530526794</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.597391041316884</v>
+        <v>-3.699769666185303</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-12.24849506282761</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.39068442737388</v>
+        <v>-27.73962048271156</v>
       </c>
       <c r="F30" t="n">
-        <v>4.001895311185632</v>
+        <v>5.297719077248311</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.716072766577131</v>
+        <v>-3.878505784580548</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-12.11781824208463</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.15656786795813</v>
+        <v>-27.56955146879754</v>
       </c>
       <c r="F31" t="n">
-        <v>3.982021195471892</v>
+        <v>5.29292729440824</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.600310624850589</v>
+        <v>-3.791389601471702</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-12.00367951254304</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.87389195730242</v>
+        <v>-27.27865359195723</v>
       </c>
       <c r="F32" t="n">
-        <v>3.930908845177793</v>
+        <v>5.302249014031548</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.813544961233782</v>
+        <v>-4.079708294652194</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-11.89623568699664</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.66290949700801</v>
+        <v>-27.08918178523177</v>
       </c>
       <c r="F33" t="n">
-        <v>4.004304294908509</v>
+        <v>5.350245396249316</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.153840096695926</v>
+        <v>-4.423001567465093</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-11.78844159316895</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.16720872681458</v>
+        <v>-26.6001842740933</v>
       </c>
       <c r="F34" t="n">
-        <v>3.918628265112254</v>
+        <v>5.341761584007878</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.318934035530091</v>
+        <v>-4.650048283346306</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-11.67905307084365</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.83196722024934</v>
+        <v>-26.30479573737827</v>
       </c>
       <c r="F35" t="n">
-        <v>3.905823992933046</v>
+        <v>5.28132751409047</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.441910036122424</v>
+        <v>-4.83150760073263</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-11.55713805904244</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.54984118631298</v>
+        <v>-26.02761859391609</v>
       </c>
       <c r="F36" t="n">
-        <v>3.909516022334413</v>
+        <v>5.31583882438126</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.404911188291707</v>
+        <v>-4.91874161456705</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-11.41729381964658</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.08184372893264</v>
+        <v>-25.54480064971892</v>
       </c>
       <c r="F37" t="n">
-        <v>3.689172565508163</v>
+        <v>5.148833409332203</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.71417756601896</v>
+        <v>-5.284056140759733</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-11.26208396186697</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.52090401367889</v>
+        <v>-25.04941409479369</v>
       </c>
       <c r="F38" t="n">
-        <v>4.105272134423901</v>
+        <v>5.510285706186576</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.673683073329501</v>
+        <v>-5.268777423343439</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-11.08778687330904</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.15831268647728</v>
+        <v>-24.6685982820364</v>
       </c>
       <c r="F39" t="n">
-        <v>4.046304402424767</v>
+        <v>5.485384146181612</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.944091496222511</v>
+        <v>-5.503312936450119</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-10.89762001371104</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.58757992869792</v>
+        <v>-24.09605878646488</v>
       </c>
       <c r="F40" t="n">
-        <v>4.068718424889801</v>
+        <v>5.564225993894487</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.837376135759602</v>
+        <v>-5.470503625528754</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-10.70098410377078</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.13153574381208</v>
+        <v>-23.63583815697252</v>
       </c>
       <c r="F41" t="n">
-        <v>4.224150244226774</v>
+        <v>5.763752689202392</v>
       </c>
       <c r="G41" t="n">
-        <v>-6.096590639722937</v>
+        <v>-5.764988793347698</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-10.5010676560606</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.58603185360872</v>
+        <v>-23.09352878866255</v>
       </c>
       <c r="F42" t="n">
-        <v>4.249130358048787</v>
+        <v>5.736599253108652</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.209825967001025</v>
+        <v>-5.825763263138991</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-10.30679107504864</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.95834757846784</v>
+        <v>-22.45285694910268</v>
       </c>
       <c r="F43" t="n">
-        <v>4.186706258099437</v>
+        <v>5.653515499275059</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.058308746213729</v>
+        <v>-5.772857267355576</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-10.12977171666222</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.71325966927073</v>
+        <v>-22.1703774229896</v>
       </c>
       <c r="F44" t="n">
-        <v>4.238970731043607</v>
+        <v>5.788287664727787</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.953400123542979</v>
+        <v>-5.767096654105217</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-9.973953934317629</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.96334565479951</v>
+        <v>-21.48045234013916</v>
       </c>
       <c r="F45" t="n">
-        <v>4.139102644966921</v>
+        <v>5.680485643129014</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.956110230231216</v>
+        <v>-5.754514951074317</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-9.845840400652332</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.40455307721179</v>
+        <v>-20.94162552438508</v>
       </c>
       <c r="F46" t="n">
-        <v>3.861257794059811</v>
+        <v>5.433198227054493</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.948922555971108</v>
+        <v>-5.757801119087591</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-9.751334076474924</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.55872485212208</v>
+        <v>-20.1460717422076</v>
       </c>
       <c r="F47" t="n">
-        <v>4.137217353357713</v>
+        <v>5.684518072404266</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.035672154600385</v>
+        <v>-5.876849428827406</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-9.68986791612884</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.86315698674686</v>
+        <v>-19.46892474693068</v>
       </c>
       <c r="F48" t="n">
-        <v>3.972542368214482</v>
+        <v>5.567708546450386</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.252834181836096</v>
+        <v>-6.039010691825025</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-9.661805873688136</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.3218557257557</v>
+        <v>-18.9664945330766</v>
       </c>
       <c r="F49" t="n">
-        <v>4.061203443058651</v>
+        <v>5.673572907228583</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.548235810853961</v>
+        <v>-6.27441029691926</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-9.667808921291725</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.73301631314622</v>
+        <v>-18.3601376192649</v>
       </c>
       <c r="F50" t="n">
-        <v>3.95015453035513</v>
+        <v>5.524399208649956</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.377433627980802</v>
+        <v>-6.160206139230883</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-9.704084031456704</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.31987560467272</v>
+        <v>-17.90825678668273</v>
       </c>
       <c r="F51" t="n">
-        <v>4.081339404829226</v>
+        <v>5.682973180668943</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.643822713901403</v>
+        <v>-6.446875202253318</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-9.767641269557707</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.00162790719604</v>
+        <v>-17.61937512448004</v>
       </c>
       <c r="F52" t="n">
-        <v>3.943425086694483</v>
+        <v>5.550060122219739</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.644006006141187</v>
+        <v>-6.471855316075331</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-9.857697100180806</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.04990913672244</v>
+        <v>-16.71592767458389</v>
       </c>
       <c r="F53" t="n">
-        <v>4.000795557746927</v>
+        <v>5.591039030114342</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.729538020606183</v>
+        <v>-6.566342465684068</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-9.971985346735261</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.40688068265107</v>
+        <v>-16.05928322555712</v>
       </c>
       <c r="F54" t="n">
-        <v>3.869034621947796</v>
+        <v>5.422436354118593</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.144406913054799</v>
+        <v>-6.971523054029806</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-10.10806586722615</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.97823868761296</v>
+        <v>-15.66698546320764</v>
       </c>
       <c r="F55" t="n">
-        <v>3.941513610479591</v>
+        <v>5.517617395777942</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.394312789697666</v>
+        <v>-7.226115975090011</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-10.26479269904569</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.86492480651782</v>
+        <v>-15.58068100287498</v>
       </c>
       <c r="F56" t="n">
-        <v>3.790821204771324</v>
+        <v>5.344118198519388</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.53807936720266</v>
+        <v>-7.452154583652412</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-10.43990148798822</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.49745005035625</v>
+        <v>-15.23243883958791</v>
       </c>
       <c r="F57" t="n">
-        <v>3.881210463590601</v>
+        <v>5.364882590826366</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.395268527805112</v>
+        <v>-7.316780172268964</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-10.62896624636612</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.36088423941421</v>
+        <v>-14.99370069726904</v>
       </c>
       <c r="F58" t="n">
-        <v>3.771837365650821</v>
+        <v>5.251529432822702</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.672759886535496</v>
+        <v>-7.548029517362372</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-10.82866314678937</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.73703600900596</v>
+        <v>-14.36063548566021</v>
       </c>
       <c r="F59" t="n">
-        <v>3.816141718467222</v>
+        <v>5.264124228156442</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.074680491473645</v>
+        <v>-7.896402603677861</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-11.03561878690781</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.36164040962515</v>
+        <v>-14.09830501362055</v>
       </c>
       <c r="F60" t="n">
-        <v>3.952223114204123</v>
+        <v>5.363730468176294</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.088191748006306</v>
+        <v>-7.964155270883793</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-11.24179147906163</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.26592258354929</v>
+        <v>-13.92299907856984</v>
       </c>
       <c r="F61" t="n">
-        <v>3.923891370854628</v>
+        <v>5.320054545896296</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.265094944003708</v>
+        <v>-8.096675560247744</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-11.43998360921817</v>
       </c>
       <c r="E62" t="n">
-        <v>-12.95234883818711</v>
+        <v>-13.55946510556363</v>
       </c>
       <c r="F62" t="n">
-        <v>3.895376335265349</v>
+        <v>5.256425954085507</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.389969328508093</v>
+        <v>-8.250222087975509</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-11.62646077744854</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.45764308300965</v>
+        <v>-13.11394713216253</v>
       </c>
       <c r="F63" t="n">
-        <v>3.744029314414995</v>
+        <v>5.137312182831483</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.454645304546219</v>
+        <v>-8.325411183195541</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-11.79134763982072</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.3333447598303</v>
+        <v>-13.02498493435301</v>
       </c>
       <c r="F64" t="n">
-        <v>3.719782369552119</v>
+        <v>5.051217199344292</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.300404884767843</v>
+        <v>-8.173972516225295</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-11.927883961481</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.18885810566901</v>
+        <v>-12.82016894869704</v>
       </c>
       <c r="F65" t="n">
-        <v>3.602710997541404</v>
+        <v>4.967635938002713</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.447208876532118</v>
+        <v>-8.29180324180083</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-12.03538507016829</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.26183460170879</v>
+        <v>-12.83036785261075</v>
       </c>
       <c r="F66" t="n">
-        <v>3.649267226446582</v>
+        <v>4.986488854094799</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.57639062867143</v>
+        <v>-8.418065410406436</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-12.10642717406848</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.14764353632326</v>
+        <v>-12.75236391227974</v>
       </c>
       <c r="F67" t="n">
-        <v>3.4990723282463</v>
+        <v>4.927049799193362</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.507944069414885</v>
+        <v>-8.378736132669891</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-12.13760703661623</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.89175447728172</v>
+        <v>-12.4331866613013</v>
       </c>
       <c r="F68" t="n">
-        <v>3.250868450972857</v>
+        <v>4.656117684186683</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.494668474333375</v>
+        <v>-8.387141391094278</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-12.13312621989087</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.85852621266942</v>
+        <v>-12.4427571346786</v>
       </c>
       <c r="F69" t="n">
-        <v>3.16024353070243</v>
+        <v>4.596940475342081</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.391265466489422</v>
+        <v>-8.284118060032737</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-12.08909971569163</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.9849978581205</v>
+        <v>-12.50357088137842</v>
       </c>
       <c r="F70" t="n">
-        <v>3.088445341918404</v>
+        <v>4.519015088828128</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.467842345810679</v>
+        <v>-8.378238625161906</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-12.00590864663016</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.10878558148901</v>
+        <v>-12.58021322221389</v>
       </c>
       <c r="F71" t="n">
-        <v>3.043774404622435</v>
+        <v>4.4870960545</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.371325889261474</v>
+        <v>-8.28626519769878</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-11.89251526680745</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.07601554747617</v>
+        <v>-12.53903792977666</v>
       </c>
       <c r="F72" t="n">
-        <v>2.864907363198773</v>
+        <v>4.277697762849433</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.393255496521364</v>
+        <v>-8.326301459788779</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-11.74916797399583</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.25883646435804</v>
+        <v>-12.68484690652496</v>
       </c>
       <c r="F73" t="n">
-        <v>2.697116409979212</v>
+        <v>4.150414394622172</v>
       </c>
       <c r="G73" t="n">
-        <v>-8.047173563203177</v>
+        <v>-7.978831742369368</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-11.57988446473372</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.57099624101331</v>
+        <v>-12.99743872917401</v>
       </c>
       <c r="F74" t="n">
-        <v>2.711387020076693</v>
+        <v>4.190686318163322</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.769027589330708</v>
+        <v>-7.689216911207546</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-11.39676601230265</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.86296768668664</v>
+        <v>-13.23456651824335</v>
       </c>
       <c r="F75" t="n">
-        <v>2.582977713805044</v>
+        <v>4.062015165834838</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.454105336775829</v>
+        <v>-7.419659487999247</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-11.201515108375</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.010426293593</v>
+        <v>-13.40081257972759</v>
       </c>
       <c r="F76" t="n">
-        <v>2.434249153523036</v>
+        <v>3.935700628017865</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.445176386237772</v>
+        <v>-7.399484249320148</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-10.99847325095527</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.36230811707008</v>
+        <v>-13.72911516578672</v>
       </c>
       <c r="F77" t="n">
-        <v>2.552813048057707</v>
+        <v>4.101030228303181</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.316321941669504</v>
+        <v>-7.231706388403428</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.79932866780266</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.63674896923834</v>
+        <v>-13.94043802595502</v>
       </c>
       <c r="F78" t="n">
-        <v>2.407488486514548</v>
+        <v>3.970735630422324</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.989629708859914</v>
+        <v>-6.937234312887326</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.60447144689824</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.96862575397325</v>
+        <v>-14.29361598741342</v>
       </c>
       <c r="F79" t="n">
-        <v>2.145197291383408</v>
+        <v>3.723343475925068</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.044591196189479</v>
+        <v>-6.941960634213189</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-10.41647089994811</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.45455966624676</v>
+        <v>-14.77280736372344</v>
       </c>
       <c r="F80" t="n">
-        <v>2.350196569279154</v>
+        <v>3.946986193067433</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.934380190867829</v>
+        <v>-6.862503448266753</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-10.24390114994822</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.91262006577023</v>
+        <v>-15.26812845713446</v>
       </c>
       <c r="F81" t="n">
-        <v>2.285625331663761</v>
+        <v>3.858586964280098</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.868080769277329</v>
+        <v>-6.748273105972693</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-10.08414440088614</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.57265542123301</v>
+        <v>-15.94424116048688</v>
       </c>
       <c r="F82" t="n">
-        <v>2.33665912814081</v>
+        <v>3.901346425361175</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.764847961370318</v>
+        <v>-6.681528546085573</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.936400682775925</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.27596083758769</v>
+        <v>-16.68192696410393</v>
       </c>
       <c r="F83" t="n">
-        <v>2.359858688776348</v>
+        <v>3.946017362657145</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.765777514872081</v>
+        <v>-6.627130027778202</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.805289843754611</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.1046250536519</v>
+        <v>-17.48199759076181</v>
       </c>
       <c r="F84" t="n">
-        <v>2.360696596158219</v>
+        <v>3.967226893260741</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.451326585219504</v>
+        <v>-6.272930866698145</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-9.685294244570061</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.44835355581245</v>
+        <v>-18.80146605575665</v>
       </c>
       <c r="F85" t="n">
-        <v>2.326080547444695</v>
+        <v>3.887625691983047</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.090253965147541</v>
+        <v>-5.96198867420715</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-9.574018058993635</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.49538429097381</v>
+        <v>-19.78314001513211</v>
       </c>
       <c r="F86" t="n">
-        <v>2.297460773432682</v>
+        <v>3.830726543832905</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.709084660213528</v>
+        <v>-5.571419095832779</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-9.474107107816929</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.50906893079729</v>
+        <v>-20.85473191042455</v>
       </c>
       <c r="F87" t="n">
-        <v>2.147894305768803</v>
+        <v>3.759111647288663</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.614545141393425</v>
+        <v>-5.499241230266342</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-9.379796266092752</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.94638121367051</v>
+        <v>-22.19717736690661</v>
       </c>
       <c r="F88" t="n">
-        <v>2.108015151312906</v>
+        <v>3.701610253207803</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.281817356973798</v>
+        <v>-5.179199887300349</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-9.289251803808519</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.47554909328127</v>
+        <v>-23.74803919232611</v>
       </c>
       <c r="F89" t="n">
-        <v>2.219823417581246</v>
+        <v>3.818995840486719</v>
       </c>
       <c r="G89" t="n">
-        <v>-5.419011598452245</v>
+        <v>-5.318397251113581</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-9.204793725714783</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.86296661002466</v>
+        <v>-25.16010951532048</v>
       </c>
       <c r="F90" t="n">
-        <v>2.215345850009376</v>
+        <v>3.76720269044485</v>
       </c>
       <c r="G90" t="n">
-        <v>-5.342997688153184</v>
+        <v>-5.249872138039986</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-9.1218000672625</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.32484005302896</v>
+        <v>-26.59793239800452</v>
       </c>
       <c r="F91" t="n">
-        <v>2.143914245704918</v>
+        <v>3.666627620014711</v>
       </c>
       <c r="G91" t="n">
-        <v>-5.216918811787362</v>
+        <v>-5.108278882806719</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-9.040317462120797</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.02647283797378</v>
+        <v>-28.33220429393376</v>
       </c>
       <c r="F92" t="n">
-        <v>2.192303397007938</v>
+        <v>3.710329726900392</v>
       </c>
       <c r="G92" t="n">
-        <v>-5.407189248986167</v>
+        <v>-5.268031162081461</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-8.963508042259571</v>
       </c>
       <c r="E93" t="n">
-        <v>-29.92765850283219</v>
+        <v>-30.29347053653285</v>
       </c>
       <c r="F93" t="n">
-        <v>2.220163817455131</v>
+        <v>3.735833532836075</v>
       </c>
       <c r="G93" t="n">
-        <v>-5.765944531455145</v>
+        <v>-5.578803154635512</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-8.888083456927168</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.08930244042389</v>
+        <v>-32.41058755215985</v>
       </c>
       <c r="F94" t="n">
-        <v>2.175676172398946</v>
+        <v>3.676734877808523</v>
       </c>
       <c r="G94" t="n">
-        <v>-5.575569355833606</v>
+        <v>-5.389868132326563</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-8.815166399496714</v>
       </c>
       <c r="E95" t="n">
-        <v>-33.9384331091836</v>
+        <v>-34.38846792706509</v>
       </c>
       <c r="F95" t="n">
-        <v>2.001993682900608</v>
+        <v>3.476186982878963</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.848570054689278</v>
+        <v>-5.660590770487775</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-8.747237074738958</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.39995624336505</v>
+        <v>-36.85325104465412</v>
       </c>
       <c r="F96" t="n">
-        <v>2.05760978537226</v>
+        <v>3.391505968098679</v>
       </c>
       <c r="G96" t="n">
-        <v>-6.157208001880128</v>
+        <v>-5.876522121256363</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-8.682032344430981</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.67287166280858</v>
+        <v>-39.18230625868298</v>
       </c>
       <c r="F97" t="n">
-        <v>2.081228299698734</v>
+        <v>3.358827580205731</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.558709653127342</v>
+        <v>-6.268819883605843</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-8.619551814904806</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.92601770496111</v>
+        <v>-41.44730083490727</v>
       </c>
       <c r="F98" t="n">
-        <v>1.649182305921774</v>
+        <v>2.858204104143809</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.617651200520792</v>
+        <v>-6.367994077631918</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-8.559454140013731</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.18252846894396</v>
+        <v>-43.75834104022592</v>
       </c>
       <c r="F99" t="n">
-        <v>1.578562424393503</v>
+        <v>2.818534426533379</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.969389008666605</v>
+        <v>-6.678595870249027</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-8.499196779769457</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.47027746750718</v>
+        <v>-46.03706944213118</v>
       </c>
       <c r="F100" t="n">
-        <v>1.347011956334736</v>
+        <v>2.586276974121159</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.031944031644372</v>
+        <v>-6.757031856573808</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-8.433300082381736</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.52182823050281</v>
+        <v>-48.17323575839289</v>
       </c>
       <c r="F101" t="n">
-        <v>1.066129691168345</v>
+        <v>2.282587917404481</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.021483281673833</v>
+        <v>-6.681279792331581</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.359288504457163</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.1229284052799</v>
+        <v>-50.78638085178437</v>
       </c>
       <c r="F102" t="n">
-        <v>1.019377077720541</v>
+        <v>2.047188312310246</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.287453413903498</v>
+        <v>-6.879759103412148</v>
       </c>
     </row>
   </sheetData>
